--- a/draft-ietf-bmwg-bgp-rr-benchmark-results-table.xlsx
+++ b/draft-ietf-bmwg-bgp-rr-benchmark-results-table.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B34"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/draft-ietf-bmwg-bgp-rr-benchmark-results-table.xlsx
+++ b/draft-ietf-bmwg-bgp-rr-benchmark-results-table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgc/Documents/GitHub/IETF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgc/Documents/src/git/IETF/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="7980" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="540" windowWidth="25420" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="22">
   <si>
     <t>IPv4</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>IPv4+IPv6 GIT + VPNv4+VPNv6 Synthetic</t>
+  </si>
+  <si>
+    <t>IPv4+VPNv4</t>
+  </si>
+  <si>
+    <t>IPv4 Synthetic + VPNv4 Synthetic</t>
+  </si>
+  <si>
+    <t>IPv6+VPNv6</t>
+  </si>
+  <si>
+    <t>IPv6 Synthetic + VPNv6 Synthetic</t>
+  </si>
+  <si>
+    <t>IPv4 GIT + VPNv4 Synthetic</t>
+  </si>
+  <si>
+    <t>IPv6 GIT + VPNv6 Synthetic</t>
   </si>
 </sst>
 </file>
@@ -389,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,10 +759,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -755,10 +773,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -769,10 +787,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -783,10 +801,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -797,10 +815,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -811,10 +829,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -825,10 +843,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -839,15 +857,239 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
         <v>4</v>
       </c>
     </row>
